--- a/testdata/samples/bundles/bundles_registry.redhat.io_redhat_redhat_operator_index_v4.7_2021-08-10.xlsx
+++ b/testdata/samples/bundles/bundles_registry.redhat.io_redhat_redhat_operator_index_v4.7_2021-08-10.xlsx
@@ -37,124 +37,124 @@
     <t>sha256:cc0ba155b29cbae0be0e1c2120017c541c9f5e6f51a47cd4ed74574c68e7c90d</t>
   </si>
   <si>
+    <t>Capabilities</t>
+  </si>
+  <si>
+    <t>Has webhooks</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>Skips</t>
+  </si>
+  <si>
     <t>Package Name</t>
   </si>
   <si>
+    <t>Certified</t>
+  </si>
+  <si>
+    <t>Scorecard Failing Tests</t>
+  </si>
+  <si>
+    <t>Supports Multi Namespaces</t>
+  </si>
+  <si>
+    <t>Bundle Path</t>
+  </si>
+  <si>
+    <t>Invalid SkipRange</t>
+  </si>
+  <si>
+    <t>Has possible performance issues</t>
+  </si>
+  <si>
+    <t>Has custom Scorecards</t>
+  </si>
+  <si>
+    <t>Multiple Architectures</t>
+  </si>
+  <si>
+    <t>Bundle Channel</t>
+  </si>
+  <si>
+    <t>Supports Own Namespaces</t>
+  </si>
+  <si>
+    <t>Infrastructure Annotations</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Default Channel</t>
+  </si>
+  <si>
+    <t>Build Date (from index image)</t>
+  </si>
+  <si>
+    <t>Validator Warnings</t>
+  </si>
+  <si>
+    <t>Max OCP Version</t>
+  </si>
+  <si>
+    <t>Issues (To process this report)</t>
+  </si>
+  <si>
     <t>Scorecard Errors</t>
   </si>
   <si>
-    <t>Max OCP Version</t>
-  </si>
-  <si>
-    <t>Build Date (from index image)</t>
-  </si>
-  <si>
-    <t>Has webhooks</t>
+    <t>Validator Errors</t>
+  </si>
+  <si>
+    <t>Is head of channel</t>
+  </si>
+  <si>
+    <t>Skip Range</t>
+  </si>
+  <si>
+    <t>Suggestion API(s) manifests</t>
+  </si>
+  <si>
+    <t>Kinds (Deprecated APIs on 1.22)</t>
+  </si>
+  <si>
+    <t>Operator Bundle Version</t>
+  </si>
+  <si>
+    <t>Project Layout</t>
+  </si>
+  <si>
+    <t>Scorecard Suggestions</t>
+  </si>
+  <si>
+    <t>Invalid Versioning</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>OCP Labels Version</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Operator Bundle Name</t>
   </si>
   <si>
     <t>SDK Version</t>
   </si>
   <si>
-    <t>Project Layout</t>
-  </si>
-  <si>
-    <t>Has possible performance issues</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>Multiple Architectures</t>
-  </si>
-  <si>
-    <t>Bundle Channel</t>
-  </si>
-  <si>
-    <t>Is head of channel</t>
+    <t>Supports All Namespaces</t>
   </si>
   <si>
     <t>Supports Single Namespaces</t>
-  </si>
-  <si>
-    <t>Capabilities</t>
-  </si>
-  <si>
-    <t>Scorecard Failing Tests</t>
-  </si>
-  <si>
-    <t>Validator Warnings</t>
-  </si>
-  <si>
-    <t>OCP Labels Version</t>
-  </si>
-  <si>
-    <t>Kinds (Deprecated APIs on 1.22)</t>
-  </si>
-  <si>
-    <t>Invalid SkipRange</t>
-  </si>
-  <si>
-    <t>Validator Errors</t>
-  </si>
-  <si>
-    <t>Skips</t>
-  </si>
-  <si>
-    <t>Infrastructure Annotations</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Certified</t>
-  </si>
-  <si>
-    <t>Operator Bundle Name</t>
-  </si>
-  <si>
-    <t>Scorecard Suggestions</t>
-  </si>
-  <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>Operator Bundle Version</t>
-  </si>
-  <si>
-    <t>Default Channel</t>
-  </si>
-  <si>
-    <t>Bundle Path</t>
-  </si>
-  <si>
-    <t>Supports Multi Namespaces</t>
-  </si>
-  <si>
-    <t>Maturity</t>
-  </si>
-  <si>
-    <t>Invalid Versioning</t>
-  </si>
-  <si>
-    <t>Supports All Namespaces</t>
-  </si>
-  <si>
-    <t>Suggestion API(s) manifests</t>
-  </si>
-  <si>
-    <t>Has custom Scorecards</t>
-  </si>
-  <si>
-    <t>Issues (To process this report)</t>
-  </si>
-  <si>
-    <t>Builder</t>
-  </si>
-  <si>
-    <t>Skip Range</t>
-  </si>
-  <si>
-    <t>Supports Own Namespaces</t>
   </si>
   <si>
     <t>apicast-operator</t>
@@ -225,8 +225,8 @@
     <t>registry.redhat.io/3scale-amp2/apicast-rhel7-operator-metadata@sha256:05f0817f38329cc1938e95932a504b9d94ac94544581d1352be9c225697e2204</t>
   </si>
   <si>
-    <t>olm-spec-descriptors
-olm-status-descriptors
+    <t>olm-status-descriptors
+olm-spec-descriptors
 olm-crds-have-resources</t>
   </si>
   <si>
@@ -234,48 +234,48 @@
 Add a spec descriptor for embeddedConfigurationSecretRef</t>
   </si>
   <si>
-    <t>adminPortalCredentialsRef does not have a spec descriptor
-embeddedConfigurationSecretRef does not have a spec descriptor
-apicasts.apps.3scale.net does not have a status descriptor
-Owned CRDs do not have resources specified</t>
-  </si>
-  <si>
-    <t>this bundle is using APIs which were deprecated and removed in v1.22. More info: https://kubernetes.io/docs/reference/using-api/deprecation-guide/#v1-22. Migrate the API(s) for CRD: (["apicasts.apps.3scale.net"])</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>CRD: (["apicasts.apps.3scale.net"])</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>apicast-operator.v0.2.2</t>
-  </si>
-  <si>
-    <t>0.2.2</t>
-  </si>
-  <si>
-    <t>2020-08-19T10:36:17.457925Z</t>
-  </si>
-  <si>
-    <t>registry.redhat.io/3scale-amp2/apicast-rhel7-operator-metadata@sha256:35d94ce12486c78bf27583987afa63f0146173c25cf5715a7d62fd2e91b2414e</t>
-  </si>
-  <si>
-    <t>olm-crds-have-resources
-olm-spec-descriptors
-olm-status-descriptors</t>
-  </si>
-  <si>
-    <t>Owned CRDs do not have resources specified
+    <t>apicasts.apps.3scale.net does not have a status descriptor
 adminPortalCredentialsRef does not have a spec descriptor
 embeddedConfigurationSecretRef does not have a spec descriptor
-apicasts.apps.3scale.net does not have a status descriptor</t>
+Owned CRDs do not have resources specified</t>
+  </si>
+  <si>
+    <t>this bundle is using APIs which were deprecated and removed in v1.22. More info: https://kubernetes.io/docs/reference/using-api/deprecation-guide/#v1-22. Migrate the API(s) for CRD: (["apicasts.apps.3scale.net"])</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>CRD: (["apicasts.apps.3scale.net"])</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>apicast-operator.v0.2.2</t>
+  </si>
+  <si>
+    <t>0.2.2</t>
+  </si>
+  <si>
+    <t>2020-08-19T10:36:17.457925Z</t>
+  </si>
+  <si>
+    <t>registry.redhat.io/3scale-amp2/apicast-rhel7-operator-metadata@sha256:35d94ce12486c78bf27583987afa63f0146173c25cf5715a7d62fd2e91b2414e</t>
+  </si>
+  <si>
+    <t>olm-status-descriptors
+olm-crds-have-resources
+olm-spec-descriptors</t>
+  </si>
+  <si>
+    <t>apicasts.apps.3scale.net does not have a status descriptor
+Owned CRDs do not have resources specified
+adminPortalCredentialsRef does not have a spec descriptor
+embeddedConfigurationSecretRef does not have a spec descriptor</t>
   </si>
   <si>
     <t>apicast-operator.v0.2.3</t>
@@ -736,124 +736,124 @@
     </row>
     <row r="5" ht="15" customHeight="true">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="P5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="Z5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="AA5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="AB5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" t="s">
-        <v>8</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA5" t="s">
+      <c r="AK5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM5" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AN5" t="s">
         <v>28</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="true">
